--- a/component/Copy of ID Category Definition.xlsx
+++ b/component/Copy of ID Category Definition.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-welian\Desktop\component\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-welian\Documents\GitHub\personal\selenium\component\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12475" uniqueCount="2557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12841" uniqueCount="2641">
   <si>
     <t>Page URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7723,6 +7723,258 @@
   </si>
   <si>
     <t>page_selector</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/virtual-machines/windows/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/virtual-machines/linux/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/virtual-machine-scale-sets/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/cloud-services/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/batch/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/service-fabric/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/app-service/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/mobile-services/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/sql-databases/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/mysql/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/documentdb/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/redis-cache/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/storage/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/sql-data-warehouse/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/sql-server-stretch-database/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/hdinsight/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/stream-analytics/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/cognitive-services/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/event-hubs/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/iot-suite/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/iot-hub/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/notification-hubs/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/networking/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/load-balancer/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/expressroute/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/traffic-manager/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/application-gateway/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/vpn-gateway/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/media-services/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/cdn/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/service-bus/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/backup/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/site-recovery/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/identity/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/multi-factor-authentication/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/scheduler/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/automation/</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/documentation/services/key-vault/</t>
+  </si>
+  <si>
+    <t>Landing page</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/iot/iot-starter-kits</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/iot</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/java/app-services</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/java/compute</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/java/data</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/java</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/media-services/developer-tools</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/media-services/resources-java</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/media-services/resources-rest</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/media-services/resources</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/media-services</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/mobile/android</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/mobile/ios</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/mobile/windows</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/mobile/xamarin</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/net</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/nodejs/app-services</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/nodejs/compute</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/nodejs/data</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/nodejs</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/other/open-source-software</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/php/app-services</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/php/cloud-services</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/php/data-management</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/php/tools</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/php/virtual-machines</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/php/websites</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/php</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/python/app-services</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/python/compute</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/python/data-services</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/python</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/ruby/app-services</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/ruby/compute</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/ruby/data</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/develop/ruby</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/downloads/downloads</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/downloads/migration-assistant</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/downloads/vm-optimization-assessment</t>
+  </si>
+  <si>
+    <t>https://www.azure.cn/downloads/vm-readiness-assessment</t>
+  </si>
+  <si>
+    <t>Develop</t>
+  </si>
+  <si>
+    <t>bread_crumb, left_nav, video, service_updates</t>
+  </si>
+  <si>
+    <t>bread_crumb, left_nav, service_updates</t>
+  </si>
+  <si>
+    <t>bread_crumb, left_nav, video</t>
+  </si>
+  <si>
+    <t>bread_crumb, left_nav</t>
   </si>
 </sst>
 </file>
@@ -7827,11 +8079,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results-handled_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results-handled" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results-handled" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results-handled_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8132,11 +8384,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F2495"/>
+  <dimension ref="A1:F2575"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -50580,6 +50830,1298 @@
         <v>2548</v>
       </c>
     </row>
+    <row r="2496" spans="1:5">
+      <c r="A2496" s="8" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B2496" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2496" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2496" s="8" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E2496" s="8" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:5">
+      <c r="A2497" s="8" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B2497" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2497" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2497" s="8" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E2497" s="8" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:5">
+      <c r="A2498" s="8" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B2498" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2498" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2498" s="8" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E2498" s="8" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:5">
+      <c r="A2499" s="8" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B2499" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2499" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2499" s="8" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E2499" s="8" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:5">
+      <c r="A2500" s="8" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B2500" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2500" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2500" s="8" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E2500" s="8" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:5">
+      <c r="A2501" s="8" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B2501" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2501" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2501" s="8" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E2501" s="8" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:5">
+      <c r="A2502" s="8" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B2502" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2502" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2502" s="8" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E2502" s="8" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:5">
+      <c r="A2503" s="8" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B2503" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2503" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2503" s="8" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E2503" s="8" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:5">
+      <c r="A2504" s="8" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B2504" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2504" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2504" s="8" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E2504" s="8" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:5">
+      <c r="A2505" s="8" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B2505" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2505" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2505" s="8" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E2505" s="8" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:5">
+      <c r="A2506" s="8" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B2506" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2506" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2506" s="8" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E2506" s="8" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:5">
+      <c r="A2507" s="8" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B2507" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2507" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2507" s="8" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E2507" s="8" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:5">
+      <c r="A2508" s="8" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B2508" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2508" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2508" s="8" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E2508" s="8" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:5">
+      <c r="A2509" s="8" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B2509" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2509" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2509" s="8" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E2509" s="8" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:5">
+      <c r="A2510" s="8" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B2510" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2510" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2510" s="8" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E2510" s="8" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:5">
+      <c r="A2511" s="8" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B2511" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2511" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2511" s="8" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E2511" s="8" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:5">
+      <c r="A2512" s="8" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B2512" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2512" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2512" s="8" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E2512" s="8" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:5">
+      <c r="A2513" s="8" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B2513" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2513" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2513" s="8" t="s">
+        <v>2639</v>
+      </c>
+      <c r="E2513" s="8" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:5">
+      <c r="A2514" s="8" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B2514" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2514" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2514" s="8" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E2514" s="8" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:5">
+      <c r="A2515" s="8" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B2515" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2515" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2515" s="8" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E2515" s="8" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:5">
+      <c r="A2516" s="8" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B2516" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2516" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2516" s="8" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E2516" s="8" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:5">
+      <c r="A2517" s="8" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B2517" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2517" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2517" s="8" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E2517" s="8" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:5">
+      <c r="A2518" s="8" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B2518" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2518" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2518" s="8" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E2518" s="8" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:5">
+      <c r="A2519" s="8" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B2519" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2519" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2519" s="8" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E2519" s="8" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:5">
+      <c r="A2520" s="8" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B2520" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2520" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2520" s="8" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E2520" s="8" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:5">
+      <c r="A2521" s="8" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B2521" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2521" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2521" s="8" t="s">
+        <v>2640</v>
+      </c>
+      <c r="E2521" s="8" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:5">
+      <c r="A2522" s="8" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B2522" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2522" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2522" s="8" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E2522" s="8" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:5">
+      <c r="A2523" s="8" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B2523" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2523" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2523" s="8" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E2523" s="8" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:5">
+      <c r="A2524" s="8" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B2524" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2524" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2524" s="8" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E2524" s="8" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:5">
+      <c r="A2525" s="8" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B2525" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2525" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2525" s="8" t="s">
+        <v>2640</v>
+      </c>
+      <c r="E2525" s="8" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:5">
+      <c r="A2526" s="8" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B2526" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2526" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2526" s="8" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E2526" s="8" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:5">
+      <c r="A2527" s="8" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B2527" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2527" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2527" s="8" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E2527" s="8" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:5">
+      <c r="A2528" s="8" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B2528" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2528" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2528" s="8" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E2528" s="8" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:5">
+      <c r="A2529" s="8" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B2529" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2529" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2529" s="8" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E2529" s="8" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:5">
+      <c r="A2530" s="8" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B2530" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2530" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2530" s="8" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E2530" s="8" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:5">
+      <c r="A2531" s="8" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B2531" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2531" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2531" s="8" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E2531" s="8" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:5">
+      <c r="A2532" s="8" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B2532" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2532" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2532" s="8" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E2532" s="8" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:5">
+      <c r="A2533" s="8" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B2533" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2533" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2533" s="8" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E2533" s="8" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:5">
+      <c r="A2534" s="8" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B2534" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2534" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2534" s="8" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E2534" s="8" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:5">
+      <c r="A2535" s="8" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B2535" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2535" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2535" s="8" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E2535" s="8" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:5">
+      <c r="A2536" s="8" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B2536" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2536" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2536" s="8" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E2536" s="8" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:5">
+      <c r="A2537" s="8" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B2537" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2537" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2537" s="8"/>
+      <c r="E2537" s="8"/>
+    </row>
+    <row r="2538" spans="1:5">
+      <c r="A2538" s="8" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B2538" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2538" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2538" s="8" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E2538" s="8" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:5">
+      <c r="A2539" s="8" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B2539" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2539" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2539" s="8" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E2539" s="8" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:5">
+      <c r="A2540" s="8" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B2540" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2540" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2540" s="8"/>
+      <c r="E2540" s="8"/>
+    </row>
+    <row r="2541" spans="1:5">
+      <c r="A2541" s="8" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B2541" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2541" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2541" s="8" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E2541" s="8" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:5">
+      <c r="A2542" s="8" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B2542" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2542" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2542" s="8"/>
+      <c r="E2542" s="8"/>
+    </row>
+    <row r="2543" spans="1:5">
+      <c r="A2543" s="8" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B2543" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2543" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2543" s="8" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E2543" s="8" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:5">
+      <c r="A2544" s="8" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B2544" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2544" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2544" s="8" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E2544" s="8" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:5">
+      <c r="A2545" s="8" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B2545" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2545" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2545" s="8" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E2545" s="8" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:5">
+      <c r="A2546" s="8" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B2546" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2546" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2546" s="8" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E2546" s="8" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:5">
+      <c r="A2547" s="8" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B2547" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2547" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2547" s="8" t="s">
+        <v>2543</v>
+      </c>
+      <c r="E2547" s="8" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:5">
+      <c r="A2548" s="8" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B2548" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2548" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2548" s="8" t="s">
+        <v>2543</v>
+      </c>
+      <c r="E2548" s="8" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:5">
+      <c r="A2549" s="8" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B2549" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2549" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2549" s="8" t="s">
+        <v>2543</v>
+      </c>
+      <c r="E2549" s="8" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:5">
+      <c r="A2550" s="8" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B2550" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2550" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2550" s="8" t="s">
+        <v>2543</v>
+      </c>
+      <c r="E2550" s="8" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:5">
+      <c r="A2551" s="8" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B2551" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2551" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2551" s="8"/>
+      <c r="E2551" s="8"/>
+    </row>
+    <row r="2552" spans="1:5">
+      <c r="A2552" s="8" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B2552" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2552" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2552" s="8"/>
+      <c r="E2552" s="8"/>
+    </row>
+    <row r="2553" spans="1:5">
+      <c r="A2553" s="8" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B2553" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2553" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2553" s="8" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E2553" s="8" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:5">
+      <c r="A2554" s="8" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B2554" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2554" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2554" s="8"/>
+      <c r="E2554" s="8"/>
+    </row>
+    <row r="2555" spans="1:5">
+      <c r="A2555" s="8" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B2555" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2555" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2555" s="8"/>
+      <c r="E2555" s="8"/>
+    </row>
+    <row r="2556" spans="1:5">
+      <c r="A2556" s="8" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B2556" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2556" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2556" s="8"/>
+      <c r="E2556" s="8"/>
+    </row>
+    <row r="2557" spans="1:5">
+      <c r="A2557" s="8" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B2557" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2557" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2557" s="8"/>
+      <c r="E2557" s="8"/>
+    </row>
+    <row r="2558" spans="1:5">
+      <c r="A2558" s="8" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B2558" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2558" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2558" s="8" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E2558" s="8" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:5">
+      <c r="A2559" s="8" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B2559" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2559" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2559" s="8" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E2559" s="8" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:5">
+      <c r="A2560" s="8" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B2560" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2560" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2560" s="8"/>
+      <c r="E2560" s="8"/>
+    </row>
+    <row r="2561" spans="1:5">
+      <c r="A2561" s="8" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B2561" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2561" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2561" s="8" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E2561" s="8" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:5">
+      <c r="A2562" s="8" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B2562" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2562" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2562" s="8" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E2562" s="8" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:5">
+      <c r="A2563" s="8" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B2563" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2563" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2563" s="8" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E2563" s="8" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:5">
+      <c r="A2564" s="8" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B2564" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2564" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2564" s="8"/>
+      <c r="E2564" s="8"/>
+    </row>
+    <row r="2565" spans="1:5">
+      <c r="A2565" s="8" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B2565" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2565" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2565" s="8" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E2565" s="8" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:5">
+      <c r="A2566" s="8" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B2566" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2566" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2566" s="8"/>
+      <c r="E2566" s="8"/>
+    </row>
+    <row r="2567" spans="1:5">
+      <c r="A2567" s="8" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B2567" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2567" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2567" s="8" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E2567" s="8" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:5">
+      <c r="A2568" s="8" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B2568" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2568" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2568" s="8"/>
+      <c r="E2568" s="8"/>
+    </row>
+    <row r="2569" spans="1:5">
+      <c r="A2569" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B2569" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2569" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2569" s="8" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E2569" s="8" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:5">
+      <c r="A2570" s="8" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B2570" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2570" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2570" s="8"/>
+      <c r="E2570" s="8"/>
+    </row>
+    <row r="2571" spans="1:5">
+      <c r="A2571" s="8" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B2571" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2571" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2571" s="8" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E2571" s="8" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:5">
+      <c r="A2572" s="8" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B2572" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2572" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2572" s="8" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E2572" s="8" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:5">
+      <c r="A2573" s="8" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B2573" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2573" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2573" s="8"/>
+      <c r="E2573" s="8"/>
+    </row>
+    <row r="2574" spans="1:5">
+      <c r="A2574" s="8" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B2574" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2574" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2574" s="8"/>
+      <c r="E2574" s="8"/>
+    </row>
+    <row r="2575" spans="1:5">
+      <c r="A2575" s="8" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B2575" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C2575" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D2575" s="8"/>
+      <c r="E2575" s="8"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F2495"/>
   <phoneticPr fontId="1" type="noConversion"/>
